--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H2">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I2">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J2">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.293676666666666</v>
+        <v>3.832616</v>
       </c>
       <c r="N2">
-        <v>12.88103</v>
+        <v>11.497848</v>
       </c>
       <c r="O2">
-        <v>0.2876481693908581</v>
+        <v>0.264217765931355</v>
       </c>
       <c r="P2">
-        <v>0.2876481693908581</v>
+        <v>0.264217765931355</v>
       </c>
       <c r="Q2">
-        <v>6.738600640132222</v>
+        <v>14.02721486766667</v>
       </c>
       <c r="R2">
-        <v>60.64740576119</v>
+        <v>126.244933809</v>
       </c>
       <c r="S2">
-        <v>0.08460648929460261</v>
+        <v>0.1263260027485089</v>
       </c>
       <c r="T2">
-        <v>0.08460648929460263</v>
+        <v>0.1263260027485089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H3">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I3">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J3">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.248317</v>
       </c>
       <c r="O3">
-        <v>0.5861550151378376</v>
+        <v>0.6031799756961482</v>
       </c>
       <c r="P3">
-        <v>0.5861550151378376</v>
+        <v>0.6031799756961482</v>
       </c>
       <c r="Q3">
-        <v>13.73158246961567</v>
+        <v>32.02258218004167</v>
       </c>
       <c r="R3">
-        <v>123.584242226541</v>
+        <v>288.203239620375</v>
       </c>
       <c r="S3">
-        <v>0.1724068611952488</v>
+        <v>0.2883883110548802</v>
       </c>
       <c r="T3">
-        <v>0.1724068611952488</v>
+        <v>0.2883883110548802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H4">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I4">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J4">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.208355333333333</v>
+        <v>1.255882</v>
       </c>
       <c r="N4">
-        <v>3.625066</v>
+        <v>3.767646</v>
       </c>
       <c r="O4">
-        <v>0.08095188030934176</v>
+        <v>0.08657959375878042</v>
       </c>
       <c r="P4">
-        <v>0.08095188030934176</v>
+        <v>0.08657959375878042</v>
       </c>
       <c r="Q4">
-        <v>1.896422263446444</v>
+        <v>4.596475791583333</v>
       </c>
       <c r="R4">
-        <v>17.067800371018</v>
+        <v>41.36828212425</v>
       </c>
       <c r="S4">
-        <v>0.02381052662102549</v>
+        <v>0.04139484701410286</v>
       </c>
       <c r="T4">
-        <v>0.02381052662102549</v>
+        <v>0.04139484701410285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H5">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I5">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J5">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6753636666666667</v>
+        <v>0.6675826666666667</v>
       </c>
       <c r="N5">
-        <v>2.026091</v>
+        <v>2.002748</v>
       </c>
       <c r="O5">
-        <v>0.04524493516196244</v>
+        <v>0.04602266461371635</v>
       </c>
       <c r="P5">
-        <v>0.04524493516196245</v>
+        <v>0.04602266461371635</v>
       </c>
       <c r="Q5">
-        <v>1.059932172315889</v>
+        <v>2.443324744055555</v>
       </c>
       <c r="R5">
-        <v>9.539389550843001</v>
+        <v>21.9899226965</v>
       </c>
       <c r="S5">
-        <v>0.01330797665259616</v>
+        <v>0.02200404365691481</v>
       </c>
       <c r="T5">
-        <v>0.01330797665259616</v>
+        <v>0.02200404365691481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.333488</v>
       </c>
       <c r="I6">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J6">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.293676666666666</v>
+        <v>3.832616</v>
       </c>
       <c r="N6">
-        <v>12.88103</v>
+        <v>11.497848</v>
       </c>
       <c r="O6">
-        <v>0.2876481693908581</v>
+        <v>0.264217765931355</v>
       </c>
       <c r="P6">
-        <v>0.2876481693908581</v>
+        <v>0.264217765931355</v>
       </c>
       <c r="Q6">
-        <v>10.49587543696</v>
+        <v>9.368814481536001</v>
       </c>
       <c r="R6">
-        <v>94.46287893264</v>
+        <v>84.31933033382401</v>
       </c>
       <c r="S6">
-        <v>0.1317809468491094</v>
+        <v>0.08437347649624036</v>
       </c>
       <c r="T6">
-        <v>0.1317809468491094</v>
+        <v>0.08437347649624034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.333488</v>
       </c>
       <c r="I7">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J7">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>26.248317</v>
       </c>
       <c r="O7">
-        <v>0.5861550151378376</v>
+        <v>0.6031799756961482</v>
       </c>
       <c r="P7">
-        <v>0.5861550151378376</v>
+        <v>0.6031799756961482</v>
       </c>
       <c r="Q7">
         <v>21.387968637744</v>
@@ -883,10 +883,10 @@
         <v>192.491717739696</v>
       </c>
       <c r="S7">
-        <v>0.2685366051826271</v>
+        <v>0.192615327447829</v>
       </c>
       <c r="T7">
-        <v>0.268536605182627</v>
+        <v>0.192615327447829</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.333488</v>
       </c>
       <c r="I8">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J8">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.208355333333333</v>
+        <v>1.255882</v>
       </c>
       <c r="N8">
-        <v>3.625066</v>
+        <v>3.767646</v>
       </c>
       <c r="O8">
-        <v>0.08095188030934176</v>
+        <v>0.08657959375878042</v>
       </c>
       <c r="P8">
-        <v>0.08095188030934176</v>
+        <v>0.08657959375878042</v>
       </c>
       <c r="Q8">
-        <v>2.953819778912</v>
+        <v>3.069998525472</v>
       </c>
       <c r="R8">
-        <v>26.584378010208</v>
+        <v>27.629986729248</v>
       </c>
       <c r="S8">
-        <v>0.03708667939369085</v>
+        <v>0.02764772949052327</v>
       </c>
       <c r="T8">
-        <v>0.03708667939369085</v>
+        <v>0.02764772949052326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.333488</v>
       </c>
       <c r="I9">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J9">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6753636666666667</v>
+        <v>0.6675826666666667</v>
       </c>
       <c r="N9">
-        <v>2.026091</v>
+        <v>2.002748</v>
       </c>
       <c r="O9">
-        <v>0.04524493516196244</v>
+        <v>0.04602266461371635</v>
       </c>
       <c r="P9">
-        <v>0.04524493516196245</v>
+        <v>0.04602266461371635</v>
       </c>
       <c r="Q9">
-        <v>1.650923781712</v>
+        <v>1.631903158336</v>
       </c>
       <c r="R9">
-        <v>14.858314035408</v>
+        <v>14.687128425024</v>
       </c>
       <c r="S9">
-        <v>0.02072817083590823</v>
+        <v>0.01469655985240824</v>
       </c>
       <c r="T9">
-        <v>0.02072817083590823</v>
+        <v>0.01469655985240824</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H10">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I10">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J10">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.293676666666666</v>
+        <v>3.832616</v>
       </c>
       <c r="N10">
-        <v>12.88103</v>
+        <v>11.497848</v>
       </c>
       <c r="O10">
-        <v>0.2876481693908581</v>
+        <v>0.264217765931355</v>
       </c>
       <c r="P10">
-        <v>0.2876481693908581</v>
+        <v>0.264217765931355</v>
       </c>
       <c r="Q10">
-        <v>4.965768737751111</v>
+        <v>5.320028718826666</v>
       </c>
       <c r="R10">
-        <v>44.69191863976</v>
+        <v>47.88025846944</v>
       </c>
       <c r="S10">
-        <v>0.06234770124940479</v>
+        <v>0.04791100506386099</v>
       </c>
       <c r="T10">
-        <v>0.0623477012494048</v>
+        <v>0.04791100506386098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H11">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I11">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J11">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.248317</v>
       </c>
       <c r="O11">
-        <v>0.5861550151378376</v>
+        <v>0.6031799756961482</v>
       </c>
       <c r="P11">
-        <v>0.5861550151378376</v>
+        <v>0.6031799756961482</v>
       </c>
       <c r="Q11">
-        <v>10.11899451962933</v>
+        <v>12.14503794630667</v>
       </c>
       <c r="R11">
-        <v>91.070950676664</v>
+        <v>109.30534151676</v>
       </c>
       <c r="S11">
-        <v>0.1270490191091608</v>
+        <v>0.1093755325957369</v>
       </c>
       <c r="T11">
-        <v>0.1270490191091608</v>
+        <v>0.1093755325957369</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H12">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I12">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J12">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.208355333333333</v>
+        <v>1.255882</v>
       </c>
       <c r="N12">
-        <v>3.625066</v>
+        <v>3.767646</v>
       </c>
       <c r="O12">
-        <v>0.08095188030934176</v>
+        <v>0.08657959375878042</v>
       </c>
       <c r="P12">
-        <v>0.08095188030934176</v>
+        <v>0.08657959375878042</v>
       </c>
       <c r="Q12">
-        <v>1.397499999230222</v>
+        <v>1.743281431653333</v>
       </c>
       <c r="R12">
-        <v>12.577499993072</v>
+        <v>15.68953288488</v>
       </c>
       <c r="S12">
-        <v>0.01754630895024504</v>
+        <v>0.01569960801228504</v>
       </c>
       <c r="T12">
-        <v>0.01754630895024504</v>
+        <v>0.01569960801228504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H13">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I13">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J13">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6753636666666667</v>
+        <v>0.6675826666666667</v>
       </c>
       <c r="N13">
-        <v>2.026091</v>
+        <v>2.002748</v>
       </c>
       <c r="O13">
-        <v>0.04524493516196244</v>
+        <v>0.04602266461371635</v>
       </c>
       <c r="P13">
-        <v>0.04524493516196245</v>
+        <v>0.04602266461371635</v>
       </c>
       <c r="Q13">
-        <v>0.7810787916524444</v>
+        <v>0.9266670490488887</v>
       </c>
       <c r="R13">
-        <v>7.029709124872</v>
+        <v>8.340003441439999</v>
       </c>
       <c r="S13">
-        <v>0.009806833488634668</v>
+        <v>0.008345359024544197</v>
       </c>
       <c r="T13">
-        <v>0.00980683348863467</v>
+        <v>0.008345359024544195</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H14">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I14">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J14">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.293676666666666</v>
+        <v>3.832616</v>
       </c>
       <c r="N14">
-        <v>12.88103</v>
+        <v>11.497848</v>
       </c>
       <c r="O14">
-        <v>0.2876481693908581</v>
+        <v>0.264217765931355</v>
       </c>
       <c r="P14">
-        <v>0.2876481693908581</v>
+        <v>0.264217765931355</v>
       </c>
       <c r="Q14">
-        <v>0.7098907380066667</v>
+        <v>0.6226314648960001</v>
       </c>
       <c r="R14">
-        <v>6.389016642060001</v>
+        <v>5.603683184064001</v>
       </c>
       <c r="S14">
-        <v>0.008913031997741313</v>
+        <v>0.005607281622744821</v>
       </c>
       <c r="T14">
-        <v>0.008913031997741315</v>
+        <v>0.005607281622744821</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H15">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I15">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J15">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>26.248317</v>
       </c>
       <c r="O15">
-        <v>0.5861550151378376</v>
+        <v>0.6031799756961482</v>
       </c>
       <c r="P15">
-        <v>0.5861550151378376</v>
+        <v>0.6031799756961482</v>
       </c>
       <c r="Q15">
-        <v>1.446579747626</v>
+        <v>1.421398862184</v>
       </c>
       <c r="R15">
-        <v>13.019217728634</v>
+        <v>12.792589759656</v>
       </c>
       <c r="S15">
-        <v>0.01816252965080101</v>
+        <v>0.01280080459770215</v>
       </c>
       <c r="T15">
-        <v>0.01816252965080101</v>
+        <v>0.01280080459770215</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H16">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I16">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J16">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.208355333333333</v>
+        <v>1.255882</v>
       </c>
       <c r="N16">
-        <v>3.625066</v>
+        <v>3.767646</v>
       </c>
       <c r="O16">
-        <v>0.08095188030934176</v>
+        <v>0.08657959375878042</v>
       </c>
       <c r="P16">
-        <v>0.08095188030934176</v>
+        <v>0.08657959375878042</v>
       </c>
       <c r="Q16">
-        <v>0.1997822206813334</v>
+        <v>0.204025566192</v>
       </c>
       <c r="R16">
-        <v>1.798039986132</v>
+        <v>1.836230095728</v>
       </c>
       <c r="S16">
-        <v>0.002508365344380389</v>
+        <v>0.001837409241869264</v>
       </c>
       <c r="T16">
-        <v>0.002508365344380389</v>
+        <v>0.001837409241869264</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H17">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I17">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J17">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6753636666666667</v>
+        <v>0.6675826666666667</v>
       </c>
       <c r="N17">
-        <v>2.026091</v>
+        <v>2.002748</v>
       </c>
       <c r="O17">
-        <v>0.04524493516196244</v>
+        <v>0.04602266461371635</v>
       </c>
       <c r="P17">
-        <v>0.04524493516196245</v>
+        <v>0.04602266461371635</v>
       </c>
       <c r="Q17">
-        <v>0.1116605764646667</v>
+        <v>0.108452809696</v>
       </c>
       <c r="R17">
-        <v>1.004945188182</v>
+        <v>0.9760752872640001</v>
       </c>
       <c r="S17">
-        <v>0.001401954184823395</v>
+        <v>0.0009767020798491111</v>
       </c>
       <c r="T17">
-        <v>0.001401954184823395</v>
+        <v>0.0009767020798491111</v>
       </c>
     </row>
   </sheetData>
